--- a/biology/Zoologie/Epicrates_cenchria/Epicrates_cenchria.xlsx
+++ b/biology/Zoologie/Epicrates_cenchria/Epicrates_cenchria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epicrates cenchria, appelé Boa arc-en-ciel comme d'autres espèces du genre, est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epicrates cenchria, appelé Boa arc-en-ciel comme d'autres espèces du genre, est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne et dans la forêt atlantique. Elle est présente en Colombie, au Venezuela, en Guyane, au Suriname, au Guyana, au Brésil, en Bolivie, au Pérou et en Equateur[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la forêt amazonienne et dans la forêt atlantique. Elle est présente en Colombie, au Venezuela, en Guyane, au Suriname, au Guyana, au Brésil, en Bolivie, au Pérou et en Equateur. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un boa de taille moyenne, qui mesure généralement 130 cm à l'âge adulte, mais pouvant atteindre 190 cm. Epicrates cenchria est brun orangé, marqué d'ocelles noires. Il possède d'impressionnants reflets irisés, à l'origine de l'appellation "boa arc-en-ciel"[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un boa de taille moyenne, qui mesure généralement 130 cm à l'âge adulte, mais pouvant atteindre 190 cm. Epicrates cenchria est brun orangé, marqué d'ocelles noires. Il possède d'impressionnants reflets irisés, à l'origine de l'appellation "boa arc-en-ciel". 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce habite les forêts tropicales humides. Comme d'autres boidae, il possède des fossettes thermosensibles lui permettant de détecter les animaux à sang-chauds, comme les oiseaux et les mammifères dont ils se nourrit[2].  C'est un serpent vivipare donnant naissance à des petits déjà formés[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce habite les forêts tropicales humides. Comme d'autres boidae, il possède des fossettes thermosensibles lui permettant de détecter les animaux à sang-chauds, comme les oiseaux et les mammifères dont ils se nourrit.  C'est un serpent vivipare donnant naissance à des petits déjà formés. 
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sous-espèces ont été élevées au rang d'espèce ou synonymisées par Passos &amp; Fernandes, 2008[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sous-espèces ont été élevées au rang d'espèce ou synonymisées par Passos &amp; Fernandes, 2008.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
